--- a/py_tian05_tennis/W_washed_tennis.xlsx
+++ b/py_tian05_tennis/W_washed_tennis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU13"/>
+  <dimension ref="A1:AU10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,452 +605,268 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/3(日)  </t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/3(日)  </t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/3(日)  </t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/3(日)  </t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/3(日)  </t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/3(日)  </t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>問</t>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赤羽，河岸A面</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>赤羽，河岸B面</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>赤羽，河岸C面</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>赤羽，河岸D面</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>赤羽，河岸E面</t>
         </is>
       </c>
     </row>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>赤羽，河岸A面</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>赤羽，河岸B面</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>赤羽，河岸C面</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>赤羽，河岸D面</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>赤羽，河岸E面</t>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>07:00~09:00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>07:00~09:00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>07:00~09:00</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>07:00~09:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>07:00~09:00</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>滝野川A面</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>滝野川B面</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>滝野川C面</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>18:00~20:00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>18:00~20:00</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>07:00~09:00</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>07:00~09:00</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>滝野川A面</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>滝野川B面</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>滝野川C面</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>07:00~09:00</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>18:00~20:00</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>07:00~09:00</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>18:00~20:00</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>07:00~09:00</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>18:00~20:00</t>
         </is>

--- a/py_tian05_tennis/W_washed_tennis.xlsx
+++ b/py_tian05_tennis/W_washed_tennis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU10"/>
+  <dimension ref="A1:AT11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,266 +607,267 @@
     </row>
     <row r="3"/>
     <row r="4"/>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>赤羽，河岸A面</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>赤羽，河岸B面</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>赤羽，河岸C面</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>赤羽，河岸D面</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>赤羽，河岸E面</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="B7" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
         <is>
           <t>15:00~17:00</t>
         </is>
       </c>
     </row>
-    <row r="7"/>
     <row r="8"/>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>滝野川A面</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>滝野川B面</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>滝野川C面</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
+    <row r="11">
+      <c r="B11" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>18:00~20:00</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>18:00~20:00</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>18:00~20:00</t>
         </is>
